--- a/levenshtein/levenshtein_sentences_toneless.xlsx
+++ b/levenshtein/levenshtein_sentences_toneless.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/dialects_data/levenshtein/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90506BF7-7EFD-C845-AB15-A34DF2356545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="770">
-  <si>
-    <t>sentence_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="769">
   <si>
     <t>Beijing</t>
   </si>
@@ -1684,249 +1687,166 @@
     <t>likʰəʐəntɐʔlakəʐən</t>
   </si>
   <si>
-    <t>man Ã-Âin na Ã-Âai he a sam</t>
-  </si>
-  <si>
-    <t>a si a ki tsaÃ-Â tÃÂuÃ-Â it tsak pÃÂen iu hok ke e liau</t>
-  </si>
-  <si>
-    <t>ki mÃÂ© tÃÂien koÃ-Â pÃÂei he mÃÂ© me</t>
-  </si>
-  <si>
-    <t>han maÃ-Â tÃÂien ten it ha tÃÂiam ki tsÃÂu voi koÃ-Â pÃÂet le</t>
-  </si>
-  <si>
-    <t>ki va lik lak tsÃÂiu tseu Ã-ÂioÃ-Â an kiu ve han tsÃÂoi vuk kÃÂa</t>
-  </si>
-  <si>
-    <t>nÃÂ© hi nai ie Ã-Âai hi tsÃÂut ke</t>
-  </si>
-  <si>
-    <t>hoi ke ie mÃÂ© me e ie</t>
-  </si>
-  <si>
-    <t>mÃÂ© me ke an ne tso oi e Ã-ÂioÃ-Â Ã-Âe tso</t>
-  </si>
-  <si>
-    <t>tÃÂiet to e mÃÂ© sÃÂ¹ÃÂ© an to oi an to e tsÃÂiu keu ve</t>
-  </si>
-  <si>
-    <t>e tsak kuo tÃÂai ke tsak kuo se e lioÃ-Â tsak na Ã-Âai tsak kÃÂo hau</t>
-  </si>
-  <si>
-    <t>e tsak pi e tsak kuo hau</t>
-  </si>
-  <si>
-    <t>e teu vuk e mo ke teu vuk e an liaÃ-Â</t>
-  </si>
-  <si>
-    <t>ki kin Ã-Âian ki to se e</t>
-  </si>
-  <si>
-    <t>sam sÃÂp se tso iu</t>
-  </si>
-  <si>
-    <t>e ke tuÃ-Â si iu ki tsÃÂuÃ-Â Ã-Âe</t>
-  </si>
-  <si>
-    <t>iu nÃÂ© sÃÂp kuo kin tsÃÂiÃ-Â Ã-Âo</t>
-  </si>
-  <si>
-    <t>na tet hi mo</t>
-  </si>
-  <si>
-    <t>Ã-Âai na atet hi ki na mÃÂ© hi</t>
-  </si>
-  <si>
-    <t>ai ia hau tsÃÂuÃ-Â Ã-Âo lien Ã-Âai ia na mÃÂ© to hi</t>
-  </si>
-  <si>
-    <t>nÃÂ© sÃÂp funÃÂ© liak koÃ-Â nÃÂ© han iu mak ke koÃ-Â ke</t>
-  </si>
-  <si>
-    <t>Ã-Âai ke tsoi sÃÂp fun pÃÂun Ã-Âai koÃ-Â mÃÂ© kuo ki</t>
-  </si>
-  <si>
-    <t>koÃ-Â Ã-Âe it tson iu han oi koÃ-Â it tson</t>
-  </si>
-  <si>
-    <t>tsÃÂiaÃ-Â nÃÂ© tsoi koÃ-Â it tson</t>
-  </si>
-  <si>
-    <t>mÃÂ© tsau ve kÃÂuai tit loi hi</t>
-  </si>
-  <si>
-    <t>kin ha han sÃÂp fun tsau ten it ha tsaÃ-Â loi hi</t>
-  </si>
-  <si>
-    <t>sÃÂt te fan tsaÃ-Â hi hau mo</t>
-  </si>
-  <si>
-    <t>man man ne sÃÂt m sÃÂ¹ÃÂ© an kip</t>
-  </si>
-  <si>
-    <t>tsÃÂo ten loi sÃÂt pi kÃÂi ten loi sÃÂt kuo hau</t>
-  </si>
-  <si>
-    <t>ki sÃÂt le fan ne n sÃÂt le fan mo a</t>
-  </si>
-  <si>
-    <t>ki hi kuo soÃ-Â hoi Ã-Âai mÃÂ© tÃÂien hi kuo</t>
-  </si>
-  <si>
-    <t>nÃÂ© loi pÃÂi it ha e to fa hioÃ-Â mo</t>
-  </si>
-  <si>
-    <t>pun it pun su pun Ã-Âai</t>
-  </si>
-  <si>
-    <t>Ã-Âai mo e pun su Ã-Âai tsÃÂn tsÃÂn mo e</t>
-  </si>
-  <si>
-    <t>nÃÂ© vÃÂa ki ti</t>
-  </si>
-  <si>
-    <t>man man ne tseu mÃÂ© hau lon tsÃÂiak</t>
-  </si>
-  <si>
-    <t>lau sÃÂn no tiet ha hi pÃÂa mÃÂ© soÃ-Â loi vo</t>
-  </si>
-  <si>
-    <t>i sen ham nÃÂ© to soi tit muk</t>
-  </si>
-  <si>
-    <t>sÃÂt ian fat tsa sÃÂt tsÃÂa tu mÃÂ© tso tet</t>
-  </si>
-  <si>
-    <t>ian ia hau tsÃÂa ia hau Ã-Âai tu mÃÂ© hau</t>
-  </si>
-  <si>
-    <t>mÃÂ© kuon nÃÂ© hi ia mÃÂ© hi fan tsÃÂn Ã-Âai tsÃÂiu voi hi</t>
-  </si>
-  <si>
-    <t>Ã-Âai tsÃÂiu oi hi</t>
-  </si>
-  <si>
-    <t>nÃÂ© he nai Ã-Âian loi ke</t>
-  </si>
-  <si>
-    <t>Ã-Âai he tsÃÂien Ã-Âian ne loi pet kin ke</t>
-  </si>
-  <si>
-    <t>kim pu Ã-Âit kÃÂoi fi man Ã-Âin toÃ-Â tsu sit</t>
-  </si>
-  <si>
-    <t>nÃÂ© oi tsÃÂiaÃ-Â Ã-Âai</t>
-  </si>
-  <si>
-    <t>it pien haÃ-Â it pien koÃ-Â</t>
-  </si>
-  <si>
-    <t>iat tseu iat ian iat koÃ-Â iat to</t>
-  </si>
-  <si>
-    <t>pa ke tsak tuÃ-Â si na pun Ã-Âai</t>
-  </si>
-  <si>
-    <t>iu teu tÃÂi foÃ-Â pa tÃÂai ioÃ-Â ham tso Ã-Âit tÃÂeu</t>
-  </si>
-  <si>
-    <t>nÃÂ© kui siaÃ-Â Ã-Âa Ã-Âai siaÃ-Â voÃ-Â</t>
-  </si>
-  <si>
-    <t>nÃÂ© siaÃ-Â voÃ-Â Ã-Âai ia siaÃ-Â voÃ-Â Ã-Âai lioÃ-Â ke Ã-Âin tu siaÃ-Â voÃ-Â</t>
-  </si>
-  <si>
-    <t>nÃÂ© tso nÃÂ© sien hi Ã-Âai ten Ã-Âin ten it ha tsaÃ-Â hi</t>
-  </si>
-  <si>
-    <t>nÃÂ© sÃÂt ian mo</t>
-  </si>
-  <si>
-    <t>nÃÂ© sÃÂt tet ke tsak Ã-Âin mo</t>
+    <t>manŋinnaŋaiheasam</t>
+  </si>
+  <si>
+    <t>asiakitsaŋtʰuŋittsakpʰeniuhokkeeliau</t>
+  </si>
+  <si>
+    <t>kim̩tʰienkoŋpʰeihem̩me</t>
+  </si>
+  <si>
+    <t>hanmaŋtʰientenithatʰiamkitsʰuvoikoŋpʰetle</t>
+  </si>
+  <si>
+    <t>kivaliklaktsʰiutseuŋioŋankiuvehantsʰoivukkʰa</t>
+  </si>
+  <si>
+    <t>n̩hinaiieŋaihitsʰutke</t>
+  </si>
+  <si>
+    <t>hoikeiem̩meeie</t>
+  </si>
+  <si>
+    <t>m̩mekeannetsooieŋioŋŋetso</t>
+  </si>
+  <si>
+    <t>tʰiettoem̩sɹ̩antooiantoetsʰiukeuve</t>
+  </si>
+  <si>
+    <t>etsakkuotʰaiketsakkuoseelioŋtsaknaŋaitsakkʰohau</t>
+  </si>
+  <si>
+    <t>etsakpietsakkuohau</t>
+  </si>
+  <si>
+    <t>eteuvukemoketeuvukeanliaŋ</t>
+  </si>
+  <si>
+    <t>kikinŋiankitosee</t>
+  </si>
+  <si>
+    <t>samsəpsetsoiu</t>
+  </si>
+  <si>
+    <t>eketuŋsiiukitsʰuŋŋe</t>
+  </si>
+  <si>
+    <t>iun̩səpkuokintsʰiŋŋo</t>
+  </si>
+  <si>
+    <t>natethimo</t>
+  </si>
+  <si>
+    <t>ŋainaatethikinam̩hi</t>
+  </si>
+  <si>
+    <t>aiiahautsʰuŋŋolienŋaiianam̩tohi</t>
+  </si>
+  <si>
+    <t>n̩səpfun̩liakkoŋn̩haniumakkekoŋke</t>
+  </si>
+  <si>
+    <t>ŋaiketsoisəpfunpʰunŋaikoŋm̩kuoki</t>
+  </si>
+  <si>
+    <t>koŋŋeittsoniuhanoikoŋittson</t>
+  </si>
+  <si>
+    <t>tsʰiaŋn̩tsoikoŋittson</t>
+  </si>
+  <si>
+    <t>m̩tsauvekʰuaititloihi</t>
+  </si>
+  <si>
+    <t>kinhahansəpfuntsautenithatsaŋloihi</t>
+  </si>
+  <si>
+    <t>səttefantsaŋhihaumo</t>
+  </si>
+  <si>
+    <t>manmannesətmsɹ̩ankip</t>
+  </si>
+  <si>
+    <t>tsʰotenloisətpikʰitenloisətkuohau</t>
+  </si>
+  <si>
+    <t>kisətlefannensətlefanmoa</t>
+  </si>
+  <si>
+    <t>kihikuosoŋhoiŋaim̩tʰienhikuo</t>
+  </si>
+  <si>
+    <t>n̩loipʰiithaetofahioŋmo</t>
+  </si>
+  <si>
+    <t>punitpunsupunŋai</t>
+  </si>
+  <si>
+    <t>ŋaimoepunsuŋaitsəntsənmoe</t>
+  </si>
+  <si>
+    <t>n̩vʰakiti</t>
+  </si>
+  <si>
+    <t>manmannetseum̩haulontsʰiak</t>
+  </si>
+  <si>
+    <t>lausənnotiethahipʰam̩soŋloivo</t>
+  </si>
+  <si>
+    <t>isenhamn̩tosoititmuk</t>
+  </si>
+  <si>
+    <t>sətianfattsasəttsʰatum̩tsotet</t>
+  </si>
+  <si>
+    <t>ianiahautsʰaiahauŋaitum̩hau</t>
+  </si>
+  <si>
+    <t>m̩kuonn̩hiiam̩hifantsənŋaitsʰiuvoihi</t>
+  </si>
+  <si>
+    <t>ŋaitsʰiuoihi</t>
+  </si>
+  <si>
+    <t>n̩henaiŋianloike</t>
+  </si>
+  <si>
+    <t>ŋaihetsʰienŋianneloipetkinke</t>
+  </si>
+  <si>
+    <t>kimpuŋitkʰoifimanŋintoŋtsusit</t>
+  </si>
+  <si>
+    <t>n̩oitsʰiaŋŋai</t>
+  </si>
+  <si>
+    <t>itpienhaŋitpienkoŋ</t>
+  </si>
+  <si>
+    <t>iattseuiatianiatkoŋiatto</t>
+  </si>
+  <si>
+    <t>paketsaktuŋsinapunŋai</t>
+  </si>
+  <si>
+    <t>iuteutʰifoŋpatʰaiioŋhamtsoŋittʰeu</t>
+  </si>
+  <si>
+    <t>n̩kuisiaŋŋaŋaisiaŋvoŋ</t>
+  </si>
+  <si>
+    <t>n̩siaŋvoŋŋaiiasiaŋvoŋŋailioŋkeŋintusiaŋvoŋ</t>
+  </si>
+  <si>
+    <t>n̩tson̩sienhiŋaitenŋintenithatsaŋhi</t>
+  </si>
+  <si>
+    <t>n̩sətianmo</t>
+  </si>
+  <si>
+    <t>n̩səttetketsakŋinmo</t>
   </si>
   <si>
     <t>nɑkoʔŋozɹ̩lɔsɤ̃</t>
@@ -2412,8 +2332,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2476,13 +2396,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2520,7 +2448,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2554,6 +2482,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2588,9 +2517,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2763,2604 +2693,2602 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O5" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O6" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O7" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O8" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O9" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O10" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O11" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O12" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O13" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O15" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N16" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O16" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O17" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="O18" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O19" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O20" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O21" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O22" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N25" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O25" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N26" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O26" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O27" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O28" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M29" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N29" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O29" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O30" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L31" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O31" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O32" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M33" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O33" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O34" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N35" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O35" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K36" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O36" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I37" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N37" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O37" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="O38" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L39" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O39" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L40" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M40" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N40" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O40" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L41" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O41" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L42" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="O42" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M43" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O43" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K44" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L44" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M44" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N44" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O44" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L45" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N45" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O45" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I46" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J46" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L46" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M46" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N46" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="O46" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J47" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K47" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L47" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M47" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N47" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O47" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L48" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M48" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N48" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O48" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L49" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M49" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N49" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O49" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K50" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L50" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M50" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N50" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O50" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J51" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L51" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N51" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O51" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J52" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K52" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M52" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N52" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O52" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J53" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K53" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M53" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N53" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O53" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K54" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M54" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N54" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O54" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I55" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J55" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K55" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L55" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M55" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N55" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O55" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L56" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M56" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N56" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O56" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/levenshtein/levenshtein_sentences_toneless.xlsx
+++ b/levenshtein/levenshtein_sentences_toneless.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/dialects_data/levenshtein/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90506BF7-7EFD-C845-AB15-A34DF2356545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="825">
+  <si>
+    <t>sentence_id</t>
+  </si>
   <si>
     <t>Beijing</t>
   </si>
@@ -64,6 +61,9 @@
     <t>Harbin</t>
   </si>
   <si>
+    <t>Xian</t>
+  </si>
+  <si>
     <t>ʂeiauoʂɻ̩lausan</t>
   </si>
   <si>
@@ -2327,13 +2327,175 @@
   </si>
   <si>
     <t>niʐənpuʐəntineikɤʐən</t>
+  </si>
+  <si>
+    <t>seiŋɤsɹ̩lausã</t>
+  </si>
+  <si>
+    <t>lausɹ̩niuotʂəŋkẽtʰaikɤxuotɕʰipʰiãni</t>
+  </si>
+  <si>
+    <t>tʰateisɹ̩xaimoʂɤuã</t>
+  </si>
+  <si>
+    <t>xaimoioutamərxaiteiixuər</t>
+  </si>
+  <si>
+    <t>tʰaʂɤmaʂaŋtsoutsoutsatautʂərxaitsaiuni</t>
+  </si>
+  <si>
+    <t>nitauatatɕʰiiaŋɤtɕiẽtʂʰəŋia</t>
+  </si>
+  <si>
+    <t>tsaiuorputsaitʂɤr</t>
+  </si>
+  <si>
+    <t>pusɹ̩uiaŋrtsousɹ̩tʂɻ̩iaŋrtsou</t>
+  </si>
+  <si>
+    <t>tʰaituoliɛtsɹ̩iautʂeiitiãrtsoukouliɛ</t>
+  </si>
+  <si>
+    <t>tʂɻ̩kɤtaukɤɕiautʂɻ̩liaaikɤxau</t>
+  </si>
+  <si>
+    <t>tʂɻ̩kɤpiukɤxau</t>
+  </si>
+  <si>
+    <t>tʂɻ̩ɕiɛfaŋtsɹ̩puʂəŋuɕiɛfaŋtsɹ̩</t>
+  </si>
+  <si>
+    <t>uotɕiẽniãtuoʂausueifu</t>
+  </si>
+  <si>
+    <t>tamərsãʂɻ̩laisuər</t>
+  </si>
+  <si>
+    <t>tʂɤtuŋɕiioutuopfəŋ</t>
+  </si>
+  <si>
+    <t>iouuʂɻ̩tɕiẽpfəŋ</t>
+  </si>
+  <si>
+    <t>nateituŋ</t>
+  </si>
+  <si>
+    <t>ŋɤnəŋnatuŋtʰanaputuŋ</t>
+  </si>
+  <si>
+    <t>tʂẽpfəŋpfəŋtiliãŋɤtounaputuŋ</t>
+  </si>
+  <si>
+    <t>niʂɤtiliautixẽnixainəŋʂɤtiarsa</t>
+  </si>
+  <si>
+    <t>ŋɤtsueipẽŋɤʂɤpukuouo</t>
+  </si>
+  <si>
+    <t>ʂɤliɛipiãkʰɤʂɤliɛipiã</t>
+  </si>
+  <si>
+    <t>tɕʰiŋnitsaiʂɤipiã</t>
+  </si>
+  <si>
+    <t>putsauliɛkãtɕiẽtɕʰi</t>
+  </si>
+  <si>
+    <t>tʂərxaitsautʂɤnitəŋixuərtsaitɕʰi</t>
+  </si>
+  <si>
+    <t>tʂʰɻ̩liɛfãtsaitɕʰiteitʂʰəŋ</t>
+  </si>
+  <si>
+    <t>mãmartʂʰɻ̩pautʂautɕi</t>
+  </si>
+  <si>
+    <t>tsuoxatʂʰɻ̩pilixatʂʰɻ̩sufu</t>
+  </si>
+  <si>
+    <t>tʰatʂʰɻ̩liɛnitʂʰɻ̩liɛmo</t>
+  </si>
+  <si>
+    <t>tʰatɕʰikuoʂaŋxaiŋɤmotɕʰikuo</t>
+  </si>
+  <si>
+    <t>nivẽixatʂʰɤxuatsʰuãputsʰuã</t>
+  </si>
+  <si>
+    <t>keiŋɤipərfu</t>
+  </si>
+  <si>
+    <t>ŋɤtʂẽkɤmoueiipərfu</t>
+  </si>
+  <si>
+    <t>nikeitʰaʂɤ</t>
+  </si>
+  <si>
+    <t>xauxaurtsoupaupʰau</t>
+  </si>
+  <si>
+    <t>ɕiauɕiẽtiɛxatɕʰitsouʂaŋpulailiɛ</t>
+  </si>
+  <si>
+    <t>taifutɕiaunituofeiixa</t>
+  </si>
+  <si>
+    <t>pupfẽtʂʰɻ̩iãxuotsʰa</t>
+  </si>
+  <si>
+    <t>iãtsʰaŋɤtoupuŋai</t>
+  </si>
+  <si>
+    <t>pukuãnitɕʰiputɕʰifãtʂəŋŋɤiautɕʰini</t>
+  </si>
+  <si>
+    <t>ŋɤfitɕʰipukʰɤ</t>
+  </si>
+  <si>
+    <t>nisɹ̩ainiãlaiti</t>
+  </si>
+  <si>
+    <t>ŋɤsɹ̩tɕʰiãniãtautipeitɕiŋ</t>
+  </si>
+  <si>
+    <t>tɕiərkʰaixueiseitipfuɕi</t>
+  </si>
+  <si>
+    <t>niteitɕʰiŋŋɤtikʰei</t>
+  </si>
+  <si>
+    <t>suãtsousuãʂɤ</t>
+  </si>
+  <si>
+    <t>yɛtsouyɛyãyɛʂɤyɛtuo</t>
+  </si>
+  <si>
+    <t>pauotuŋɕikeiŋɤ</t>
+  </si>
+  <si>
+    <t>iouɕiɛtifaŋpatʰaiiaŋtɕiauərtʰou</t>
+  </si>
+  <si>
+    <t>nikueiɕiŋŋɤɕiŋuaŋ</t>
+  </si>
+  <si>
+    <t>niɕiŋuaŋŋɤiɛɕiŋuaŋtsailiasɹ̩itɕiatsɹ̩</t>
+  </si>
+  <si>
+    <t>niɕiãtɕʰiŋaititəŋixatsaitɕʰi</t>
+  </si>
+  <si>
+    <t>nitʂʰɻ̩iãpu</t>
+  </si>
+  <si>
+    <t>uoʐẽniʐẽteitei</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2396,21 +2558,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2448,7 +2602,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2482,7 +2636,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2517,10 +2670,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2693,2602 +2845,2769 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="O2" t="s">
-        <v>717</v>
+        <v>719</v>
+      </c>
+      <c r="P2" t="s">
+        <v>771</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="N3" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="O3" t="s">
-        <v>718</v>
+        <v>720</v>
+      </c>
+      <c r="P3" t="s">
+        <v>772</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M4" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="O4" t="s">
-        <v>719</v>
+        <v>721</v>
+      </c>
+      <c r="P4" t="s">
+        <v>773</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M5" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="N5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O5" t="s">
-        <v>720</v>
+        <v>722</v>
+      </c>
+      <c r="P5" t="s">
+        <v>774</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K6" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M6" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="N6" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O6" t="s">
-        <v>721</v>
+        <v>723</v>
+      </c>
+      <c r="P6" t="s">
+        <v>775</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O7" t="s">
-        <v>722</v>
+        <v>724</v>
+      </c>
+      <c r="P7" t="s">
+        <v>776</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K8" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L8" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M8" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="N8" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="O8" t="s">
-        <v>723</v>
+        <v>725</v>
+      </c>
+      <c r="P8" t="s">
+        <v>777</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K9" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L9" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M9" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="O9" t="s">
-        <v>724</v>
+        <v>726</v>
+      </c>
+      <c r="P9" t="s">
+        <v>778</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L10" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M10" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N10" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O10" t="s">
-        <v>725</v>
+        <v>727</v>
+      </c>
+      <c r="P10" t="s">
+        <v>779</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J11" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K11" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L11" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M11" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N11" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="O11" t="s">
-        <v>726</v>
+        <v>728</v>
+      </c>
+      <c r="P11" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J12" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K12" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M12" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N12" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="O12" t="s">
-        <v>727</v>
+        <v>729</v>
+      </c>
+      <c r="P12" t="s">
+        <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I13" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J13" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K13" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L13" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M13" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="N13" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="O13" t="s">
-        <v>728</v>
+        <v>730</v>
+      </c>
+      <c r="P13" t="s">
+        <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I15" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K15" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L15" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M15" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N15" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="O15" t="s">
-        <v>729</v>
+        <v>731</v>
+      </c>
+      <c r="P15" t="s">
+        <v>783</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G16" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I16" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J16" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K16" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M16" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N16" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="O16" t="s">
-        <v>730</v>
+        <v>732</v>
+      </c>
+      <c r="P16" t="s">
+        <v>784</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="J17" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N17" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="O17" t="s">
-        <v>731</v>
+        <v>733</v>
+      </c>
+      <c r="P17" t="s">
+        <v>785</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G18" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H18" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I18" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J18" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K18" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L18" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M18" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="N18" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="O18" t="s">
-        <v>732</v>
+        <v>734</v>
+      </c>
+      <c r="P18" t="s">
+        <v>786</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H19" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I19" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J19" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M19" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N19" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O19" t="s">
-        <v>733</v>
+        <v>735</v>
+      </c>
+      <c r="P19" t="s">
+        <v>787</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H20" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I20" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J20" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K20" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L20" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M20" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N20" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="O20" t="s">
-        <v>734</v>
+        <v>736</v>
+      </c>
+      <c r="P20" t="s">
+        <v>788</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="J21" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K21" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L21" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M21" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N21" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="O21" t="s">
-        <v>735</v>
+        <v>737</v>
+      </c>
+      <c r="P21" t="s">
+        <v>789</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F22" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H22" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I22" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J22" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K22" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L22" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M22" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N22" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="O22" t="s">
-        <v>736</v>
+        <v>738</v>
+      </c>
+      <c r="P22" t="s">
+        <v>790</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H23" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I23" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J23" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K23" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L23" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M23" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="N23" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="P23" t="s">
+        <v>791</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G24" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H24" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I24" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J24" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K24" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L24" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M24" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="N24" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O24" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="P24" t="s">
+        <v>792</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H25" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I25" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J25" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K25" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L25" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M25" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N25" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="O25" t="s">
-        <v>737</v>
+        <v>739</v>
+      </c>
+      <c r="P25" t="s">
+        <v>793</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H26" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I26" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J26" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K26" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L26" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M26" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N26" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="O26" t="s">
-        <v>738</v>
+        <v>740</v>
+      </c>
+      <c r="P26" t="s">
+        <v>794</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G27" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H27" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I27" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K27" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M27" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O27" t="s">
-        <v>739</v>
+        <v>741</v>
+      </c>
+      <c r="P27" t="s">
+        <v>795</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H28" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I28" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J28" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K28" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L28" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M28" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="N28" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O28" t="s">
-        <v>740</v>
+        <v>742</v>
+      </c>
+      <c r="P28" t="s">
+        <v>796</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H29" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I29" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J29" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K29" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L29" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M29" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="N29" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="O29" t="s">
-        <v>741</v>
+        <v>743</v>
+      </c>
+      <c r="P29" t="s">
+        <v>797</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H30" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I30" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J30" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L30" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M30" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="N30" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="O30" t="s">
-        <v>742</v>
+        <v>744</v>
+      </c>
+      <c r="P30" t="s">
+        <v>798</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H31" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I31" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J31" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K31" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M31" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N31" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="O31" t="s">
-        <v>743</v>
+        <v>745</v>
+      </c>
+      <c r="P31" t="s">
+        <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I32" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J32" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K32" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L32" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M32" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N32" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="O32" t="s">
-        <v>744</v>
+        <v>746</v>
+      </c>
+      <c r="P32" t="s">
+        <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H33" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I33" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J33" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K33" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L33" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M33" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="N33" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="O33" t="s">
-        <v>745</v>
+        <v>747</v>
+      </c>
+      <c r="P33" t="s">
+        <v>801</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G34" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H34" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I34" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J34" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K34" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L34" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M34" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N34" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O34" t="s">
-        <v>746</v>
+        <v>748</v>
+      </c>
+      <c r="P34" t="s">
+        <v>802</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H35" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I35" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J35" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K35" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L35" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M35" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="N35" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="O35" t="s">
-        <v>747</v>
+        <v>749</v>
+      </c>
+      <c r="P35" t="s">
+        <v>803</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G36" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H36" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I36" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J36" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K36" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L36" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M36" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N36" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="O36" t="s">
-        <v>748</v>
+        <v>750</v>
+      </c>
+      <c r="P36" t="s">
+        <v>804</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H37" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I37" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K37" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L37" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M37" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="N37" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="O37" t="s">
-        <v>749</v>
+        <v>751</v>
+      </c>
+      <c r="P37" t="s">
+        <v>805</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H38" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I38" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J38" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K38" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L38" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="M38" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N38" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="O38" t="s">
-        <v>750</v>
+        <v>752</v>
+      </c>
+      <c r="P38" t="s">
+        <v>806</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H39" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I39" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J39" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K39" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L39" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M39" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N39" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="O39" t="s">
-        <v>751</v>
+        <v>753</v>
+      </c>
+      <c r="P39" t="s">
+        <v>807</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G40" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H40" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I40" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J40" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K40" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L40" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M40" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="N40" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O40" t="s">
-        <v>752</v>
+        <v>754</v>
+      </c>
+      <c r="P40" t="s">
+        <v>808</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G41" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H41" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I41" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J41" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K41" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L41" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M41" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N41" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="O41" t="s">
-        <v>753</v>
+        <v>755</v>
+      </c>
+      <c r="P41" t="s">
+        <v>809</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G42" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H42" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I42" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J42" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K42" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L42" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M42" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N42" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="O42" t="s">
-        <v>754</v>
+        <v>756</v>
+      </c>
+      <c r="P42" t="s">
+        <v>810</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G43" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H43" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I43" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J43" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K43" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M43" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="N43" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O43" t="s">
-        <v>755</v>
+        <v>757</v>
+      </c>
+      <c r="P43" t="s">
+        <v>811</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G44" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H44" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I44" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K44" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L44" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M44" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="N44" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="O44" t="s">
-        <v>756</v>
+        <v>758</v>
+      </c>
+      <c r="P44" t="s">
+        <v>812</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F45" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G45" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H45" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I45" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J45" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K45" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L45" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M45" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="N45" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="O45" t="s">
-        <v>757</v>
+        <v>759</v>
+      </c>
+      <c r="P45" t="s">
+        <v>813</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G46" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H46" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I46" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J46" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K46" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L46" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M46" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N46" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="O46" t="s">
-        <v>758</v>
+        <v>760</v>
+      </c>
+      <c r="P46" t="s">
+        <v>814</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F47" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G47" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H47" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I47" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J47" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K47" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L47" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M47" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N47" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="O47" t="s">
-        <v>759</v>
+        <v>761</v>
+      </c>
+      <c r="P47" t="s">
+        <v>815</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G48" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H48" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I48" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J48" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K48" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L48" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M48" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N48" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="O48" t="s">
-        <v>760</v>
+        <v>762</v>
+      </c>
+      <c r="P48" t="s">
+        <v>816</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F49" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G49" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H49" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I49" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J49" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K49" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L49" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M49" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="N49" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="O49" t="s">
-        <v>761</v>
+        <v>763</v>
+      </c>
+      <c r="P49" t="s">
+        <v>817</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F50" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G50" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H50" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I50" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J50" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K50" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L50" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M50" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="N50" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="O50" t="s">
-        <v>762</v>
+        <v>764</v>
+      </c>
+      <c r="P50" t="s">
+        <v>818</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G51" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H51" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I51" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J51" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K51" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L51" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M51" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="N51" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O51" t="s">
-        <v>763</v>
+        <v>765</v>
+      </c>
+      <c r="P51" t="s">
+        <v>819</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G52" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H52" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I52" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J52" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K52" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L52" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M52" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="N52" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="O52" t="s">
-        <v>764</v>
+        <v>766</v>
+      </c>
+      <c r="P52" t="s">
+        <v>820</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E53" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F53" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G53" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H53" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I53" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J53" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K53" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L53" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M53" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="N53" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="O53" t="s">
-        <v>765</v>
+        <v>767</v>
+      </c>
+      <c r="P53" t="s">
+        <v>821</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E54" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F54" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G54" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H54" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I54" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J54" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K54" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L54" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M54" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="N54" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="O54" t="s">
-        <v>766</v>
+        <v>768</v>
+      </c>
+      <c r="P54" t="s">
+        <v>822</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E55" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F55" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G55" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H55" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I55" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J55" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K55" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L55" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M55" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="N55" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="O55" t="s">
-        <v>767</v>
+        <v>769</v>
+      </c>
+      <c r="P55" t="s">
+        <v>823</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E56" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F56" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H56" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I56" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J56" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K56" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L56" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M56" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="N56" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="O56" t="s">
-        <v>768</v>
+        <v>770</v>
+      </c>
+      <c r="P56" t="s">
+        <v>824</v>
       </c>
     </row>
   </sheetData>

--- a/levenshtein/levenshtein_sentences_toneless.xlsx
+++ b/levenshtein/levenshtein_sentences_toneless.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="880">
   <si>
     <t>sentence_id</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Xian</t>
   </si>
   <si>
+    <t>Wulumuqi</t>
+  </si>
+  <si>
     <t>ʂeiauoʂɻ̩lausan</t>
   </si>
   <si>
@@ -2489,6 +2492,168 @@
   </si>
   <si>
     <t>uoʐẽniʐẽteitei</t>
+  </si>
+  <si>
+    <t>seiikɤvɤsɹ̩lɔsanikɤ</t>
+  </si>
+  <si>
+    <t>lɔsɹ̩naɲiatʂɤŋlianikɤpʰɤŋiɤuɕyanxuɑŋtiɲi</t>
+  </si>
+  <si>
+    <t>tʰaxanmɤpʰianvanma</t>
+  </si>
+  <si>
+    <t>mɤiɤuɲixapatsaitɤŋitʂɤ̃rtɕiɤufɤvanliɤ</t>
+  </si>
+  <si>
+    <t>tʰafɤatsɹ̩rtɕiɤutsɤuɲimutsapanʂɻ̩tʰianliɤxantsaitɑŋtsɹ̩litʰɤuɲi</t>
+  </si>
+  <si>
+    <t>ɲitɔnatatɕʰiɲivɤtɔtʂʰɤŋxɑŋtɕʰiɲi</t>
+  </si>
+  <si>
+    <t>tsaineitaɲiputsaitsatsa</t>
+  </si>
+  <si>
+    <t>pusɹ̩neimutɕiatsuteitsɹ̩mutɕiatsu</t>
+  </si>
+  <si>
+    <t>tʰaituɤliɤiɔpuxɑŋnɤmutuɤtsɹ̩iɔtseiɕiɤtɕiɤukɤuliɤ</t>
+  </si>
+  <si>
+    <t>tseikɤtaneikɤɕiɔtseiliɑŋkɤnakɤxɔɕiɤr</t>
+  </si>
+  <si>
+    <t>tseikɤkanneikɤxɔ</t>
+  </si>
+  <si>
+    <t>tseiɕiɤfɑŋtsɹ̩mɤiɤuneiɕiɤfɑŋtsɹ̩xɔ</t>
+  </si>
+  <si>
+    <t>tʰatɕiŋɲiantuɤtaliɤ</t>
+  </si>
+  <si>
+    <t>takaisaʂɻ̩tuɤsueiliɤpa</t>
+  </si>
+  <si>
+    <t>tseikɤtuŋɕiiɤutuɤtʂuŋ</t>
+  </si>
+  <si>
+    <t>iɤuvuʂɻ̩tɕiŋ</t>
+  </si>
+  <si>
+    <t>nɤŋnatuŋma</t>
+  </si>
+  <si>
+    <t>vɤnatuŋɲitʰanaputuŋ</t>
+  </si>
+  <si>
+    <t>tʂuɤʂɻ̩putɕʰiŋtʂuŋtilianvɤiɤnaputuŋ</t>
+  </si>
+  <si>
+    <t>ɲifɤtitsantɕiŋtixɤŋɲixannɤŋfɤɕiɤsaɲi</t>
+  </si>
+  <si>
+    <t>vɤtsueipɤŋtixɤŋfɤpukuɤtʰa</t>
+  </si>
+  <si>
+    <t>fɤliɤipianiɤufɤliɤipian</t>
+  </si>
+  <si>
+    <t>tɕʰiŋɲitsaifɤipian</t>
+  </si>
+  <si>
+    <t>putsɔliɤkantɕiŋtɕʰipa</t>
+  </si>
+  <si>
+    <t>ɕiantsaixantsɔtiɲitɤŋixatsaitɕʰi</t>
+  </si>
+  <si>
+    <t>fantʂʰɻ̩liɤtsaitɕʰitsamukɤ</t>
+  </si>
+  <si>
+    <t>manɕiɤtʂʰɻ̩pɤtʂuɤtɕi</t>
+  </si>
+  <si>
+    <t>tsuɤtitʂʰɻ̩kantsantitʂʰɻ̩xɔ</t>
+  </si>
+  <si>
+    <t>tʰatʂʰɻ̩liɤfanliɤɲifantʂʰɻ̩liɤmɤiɤu</t>
+  </si>
+  <si>
+    <t>tʰatɕʰikuɤʂɑŋxaivɤmɤtɕʰikuɤ</t>
+  </si>
+  <si>
+    <t>kuɤlaivɤŋixatseikɤxuerɕiɑŋpuɕiɑŋ</t>
+  </si>
+  <si>
+    <t>kuɤiʂɻ̩mɤfu</t>
+  </si>
+  <si>
+    <t>vɤtʂuɤʂɻ̩mɤfu</t>
+  </si>
+  <si>
+    <t>ɲikɤŋtʰafɤ</t>
+  </si>
+  <si>
+    <t>xɔxɔrtsɤupɤpʰɔ</t>
+  </si>
+  <si>
+    <t>ɕiɔɕiŋpɤtiɤxatɕʰipʰapuʂɑŋlailiɤ</t>
+  </si>
+  <si>
+    <t>taifuʐɑŋɲituɤtʰɑŋixuər</t>
+  </si>
+  <si>
+    <t>tʂʰɤuianxɤtsʰatɤupuɕiŋ</t>
+  </si>
+  <si>
+    <t>ianliɤtsʰaliɤvɤtɤupuxɔ</t>
+  </si>
+  <si>
+    <t>pukuanɲitɕʰiputɕʰifantʂɤŋvɤsɹ̩iɔtɕʰiɲi</t>
+  </si>
+  <si>
+    <t>vɤfɤitɕʰipuɕiŋ</t>
+  </si>
+  <si>
+    <t>ɲisɹ̩naiɲianlaiti</t>
+  </si>
+  <si>
+    <t>vɤsɹ̩tɕʰianɲianlaitipeitɕiŋ</t>
+  </si>
+  <si>
+    <t>tɕiŋtʰiankʰaixueiseititʂuɕi</t>
+  </si>
+  <si>
+    <t>ɲiteitɕʰiŋvɤtikʰei</t>
+  </si>
+  <si>
+    <t>tsɤutiɲifɤtiɲi</t>
+  </si>
+  <si>
+    <t>yɤtɤuyɤuyanyɤfɤyɤtuɤ</t>
+  </si>
+  <si>
+    <t>paɲeikɤtuŋɕikeivɤ</t>
+  </si>
+  <si>
+    <t>iɤutitifaŋpatʰaiiɑŋtɕiɔʐɻ̩tʰɤu</t>
+  </si>
+  <si>
+    <t>ɲikueiɕiŋvɤɕiŋvɑŋ</t>
+  </si>
+  <si>
+    <t>ɲiɕiŋvɑŋvɤiɤɕiŋvɑŋtsamɤŋliɑŋkɤtɤuɕiŋvɑŋ</t>
+  </si>
+  <si>
+    <t>ɲiɕiantɕʰivɤmɤŋtɤŋixatsaitɕʰi</t>
+  </si>
+  <si>
+    <t>ɲiiantʂʰɤuputʂʰu</t>
+  </si>
+  <si>
+    <t>ɲiʐɤŋteineikɤʐɤŋɲima</t>
   </si>
 </sst>
 </file>
@@ -2846,13 +3011,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2901,2713 +3066,2878 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P2" t="s">
-        <v>771</v>
+        <v>772</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>826</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="P3" t="s">
-        <v>772</v>
+        <v>773</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>827</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="O4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P4" t="s">
-        <v>773</v>
+        <v>774</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P5" t="s">
-        <v>774</v>
+        <v>775</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>829</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P6" t="s">
-        <v>775</v>
+        <v>776</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="P7" t="s">
-        <v>776</v>
+        <v>777</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>831</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="P8" t="s">
-        <v>777</v>
+        <v>778</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>832</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="P9" t="s">
-        <v>778</v>
+        <v>779</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>833</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P10" t="s">
-        <v>779</v>
+        <v>780</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M11" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O11" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P11" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O12" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="P12" t="s">
-        <v>781</v>
+        <v>782</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>836</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N13" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O13" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="P13" t="s">
-        <v>782</v>
+        <v>783</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L15" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M15" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N15" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O15" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P15" t="s">
-        <v>783</v>
+        <v>784</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L16" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M16" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N16" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O16" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P16" t="s">
-        <v>784</v>
+        <v>785</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>839</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K17" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M17" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N17" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O17" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P17" t="s">
-        <v>785</v>
+        <v>786</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>840</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M18" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N18" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O18" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P18" t="s">
-        <v>786</v>
+        <v>787</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M19" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O19" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="P19" t="s">
-        <v>787</v>
+        <v>788</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K20" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M20" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N20" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O20" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P20" t="s">
-        <v>788</v>
+        <v>789</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>843</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M21" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N21" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O21" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="P21" t="s">
-        <v>789</v>
+        <v>790</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>844</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I22" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J22" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K22" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M22" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N22" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O22" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P22" t="s">
-        <v>790</v>
+        <v>791</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>845</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K23" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L23" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M23" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N23" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" t="s">
-        <v>791</v>
+        <v>792</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>846</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K24" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L24" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M24" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N24" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>792</v>
+        <v>793</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>847</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K25" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N25" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O25" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P25" t="s">
-        <v>793</v>
+        <v>794</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>848</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K26" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L26" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M26" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N26" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O26" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="P26" t="s">
-        <v>794</v>
+        <v>795</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>849</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K27" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L27" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M27" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N27" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O27" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P27" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>850</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J28" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K28" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L28" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M28" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N28" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O28" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="P28" t="s">
-        <v>796</v>
+        <v>797</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>851</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J29" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K29" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L29" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M29" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N29" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O29" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P29" t="s">
-        <v>797</v>
+        <v>798</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>852</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J30" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K30" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L30" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M30" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N30" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O30" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="P30" t="s">
-        <v>798</v>
+        <v>799</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>853</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J31" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K31" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L31" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M31" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N31" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O31" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P31" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>854</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H32" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I32" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K32" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L32" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M32" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N32" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O32" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="P32" t="s">
-        <v>800</v>
+        <v>801</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>855</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G33" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H33" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I33" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J33" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K33" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L33" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M33" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N33" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O33" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="P33" t="s">
-        <v>801</v>
+        <v>802</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>856</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H34" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I34" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J34" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K34" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L34" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M34" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N34" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O34" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P34" t="s">
-        <v>802</v>
+        <v>803</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>857</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I35" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J35" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K35" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L35" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M35" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N35" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O35" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="P35" t="s">
-        <v>803</v>
+        <v>804</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>858</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J36" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K36" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L36" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M36" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N36" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="O36" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P36" t="s">
-        <v>804</v>
+        <v>805</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>859</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I37" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K37" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L37" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M37" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N37" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O37" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P37" t="s">
-        <v>805</v>
+        <v>806</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>860</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H38" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I38" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J38" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K38" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L38" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M38" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N38" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O38" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P38" t="s">
-        <v>806</v>
+        <v>807</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>861</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H39" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I39" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J39" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K39" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L39" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M39" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N39" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O39" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="P39" t="s">
-        <v>807</v>
+        <v>808</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>862</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H40" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I40" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J40" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K40" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L40" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M40" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N40" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O40" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P40" t="s">
-        <v>808</v>
+        <v>809</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>863</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H41" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I41" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J41" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K41" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L41" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M41" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N41" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O41" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P41" t="s">
-        <v>809</v>
+        <v>810</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>864</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I42" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J42" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K42" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L42" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M42" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N42" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O42" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="P42" t="s">
-        <v>810</v>
+        <v>811</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>865</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H43" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J43" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K43" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L43" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M43" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N43" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O43" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="P43" t="s">
-        <v>811</v>
+        <v>812</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>866</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G44" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H44" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I44" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J44" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K44" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L44" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N44" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O44" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P44" t="s">
-        <v>812</v>
+        <v>813</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>867</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F45" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H45" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I45" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J45" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K45" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L45" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M45" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O45" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P45" t="s">
-        <v>813</v>
+        <v>814</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>868</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H46" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I46" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J46" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K46" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L46" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M46" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N46" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O46" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P46" t="s">
-        <v>814</v>
+        <v>815</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>869</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G47" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H47" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I47" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J47" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K47" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L47" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M47" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N47" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O47" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P47" t="s">
-        <v>815</v>
+        <v>816</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>870</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H48" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I48" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J48" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K48" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L48" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M48" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N48" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O48" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="P48" t="s">
-        <v>816</v>
+        <v>817</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>871</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H49" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I49" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J49" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K49" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L49" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M49" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N49" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O49" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="P49" t="s">
-        <v>817</v>
+        <v>818</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>872</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H50" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I50" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J50" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K50" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L50" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M50" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N50" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="O50" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="P50" t="s">
-        <v>818</v>
+        <v>819</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>873</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H51" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I51" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J51" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K51" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L51" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M51" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N51" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O51" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="P51" t="s">
-        <v>819</v>
+        <v>820</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>874</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F52" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I52" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K52" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L52" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M52" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N52" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O52" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="P52" t="s">
-        <v>820</v>
+        <v>821</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>875</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F53" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G53" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I53" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J53" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K53" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L53" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M53" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N53" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O53" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="P53" t="s">
-        <v>821</v>
+        <v>822</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>876</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G54" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I54" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J54" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K54" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L54" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M54" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N54" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O54" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="P54" t="s">
-        <v>822</v>
+        <v>823</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>877</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F55" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H55" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I55" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J55" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K55" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L55" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M55" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N55" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O55" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="P55" t="s">
-        <v>823</v>
+        <v>824</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>878</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H56" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I56" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J56" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K56" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L56" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M56" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N56" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O56" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P56" t="s">
-        <v>824</v>
+        <v>825</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>

--- a/levenshtein/levenshtein_sentences_toneless.xlsx
+++ b/levenshtein/levenshtein_sentences_toneless.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="935">
   <si>
     <t>sentence_id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>Wulumuqi</t>
   </si>
   <si>
+    <t>Wenzhou</t>
+  </si>
+  <si>
     <t>ʂeiauoʂɻ̩lausan</t>
   </si>
   <si>
@@ -2654,6 +2657,168 @@
   </si>
   <si>
     <t>ɲiʐɤŋteineikɤʐɤŋɲima</t>
+  </si>
+  <si>
+    <t>aɲinaŋaŋ̩zɹ̩lɜsa</t>
+  </si>
+  <si>
+    <t>lɜsɹ̩neigitseŋzɹ̩tatʰuɔjikaiboŋjaukuɔɕyɦo</t>
+  </si>
+  <si>
+    <t>givameikuɔjya</t>
+  </si>
+  <si>
+    <t>vameidaketsekujioŋ̩jɤukuɔhɜba</t>
+  </si>
+  <si>
+    <t>gikuɔjɤutsaudɜketsɹ̩napønebavazɹ̩vuleia</t>
+  </si>
+  <si>
+    <t>ɲitsauɲauduɔkʰeiaŋ̩tsauzeŋteikʰei</t>
+  </si>
+  <si>
+    <t>zɹ̩hauduɔfuzɹ̩kauduɔ</t>
+  </si>
+  <si>
+    <t>fuzɹ̩henaŋtɕyɔdʑakenaŋtɕyɔ</t>
+  </si>
+  <si>
+    <t>tʰɤutɤubafujyɔhenaŋtɤutsɹ̩jyɔnaŋtɤujɤuliɛteiba</t>
+  </si>
+  <si>
+    <t>kikaidɤuhekaisaikiliɛkaiɲaukaihɜlenei</t>
+  </si>
+  <si>
+    <t>kikaipeihekaihɜ</t>
+  </si>
+  <si>
+    <t>kilevuduɔnauhelevuduɔnaŋhɜ</t>
+  </si>
+  <si>
+    <t>gikeɲikelesɹ̩a</t>
+  </si>
+  <si>
+    <t>dakesazaioba</t>
+  </si>
+  <si>
+    <t>kikaimøzɹ̩jaukeledʑyɔa</t>
+  </si>
+  <si>
+    <t>jauŋ̩zaiotɕaŋdʑyɔ</t>
+  </si>
+  <si>
+    <t>tødoŋafu</t>
+  </si>
+  <si>
+    <t>ŋ̩tødoŋgitøfudoŋ</t>
+  </si>
+  <si>
+    <t>dʑyɔzaŋeliŋ̩ɦatøfudoŋ</t>
+  </si>
+  <si>
+    <t>ɲikuɔhɜɕinaɲivavaikuɔleɲiɦɔ</t>
+  </si>
+  <si>
+    <t>ŋ̩fuvaikuɔŋ̩kuɔgifuku</t>
+  </si>
+  <si>
+    <t>kuɔjipijijipi</t>
+  </si>
+  <si>
+    <t>tsʰeŋɲitsekuɔpitʰi</t>
+  </si>
+  <si>
+    <t>dzɹ̩ɦuɔbakʰaletsau</t>
+  </si>
+  <si>
+    <t>naŋkavatsɜtaŋoŋ̩ɕitsetsauna</t>
+  </si>
+  <si>
+    <t>vatsʰɹ̩ɦuɔtsetsaujyɔdʑaafu</t>
+  </si>
+  <si>
+    <t>faihuɔmamazɹ̩naŋtsʰɹ̩</t>
+  </si>
+  <si>
+    <t>zotatsʰɹ̩peigetatsʰɹ̩hɜle</t>
+  </si>
+  <si>
+    <t>givatsʰɹ̩ɦuɔbaɲitsʰɹ̩ɦuɔbameia</t>
+  </si>
+  <si>
+    <t>gijihetsaukubaŋ̩nautsauku</t>
+  </si>
+  <si>
+    <t>tsaulehoŋtsʰɹ̩kitohoɕiafu</t>
+  </si>
+  <si>
+    <t>sɹ̩hapaŋŋ̩</t>
+  </si>
+  <si>
+    <t>hepaŋsɹ̩ŋ̩tsaŋtsaŋnau</t>
+  </si>
+  <si>
+    <t>ɲikʰuɔgikuɔa</t>
+  </si>
+  <si>
+    <t>tsautsauhɜlefaizei</t>
+  </si>
+  <si>
+    <t>lɤusaŋlailobofuji</t>
+  </si>
+  <si>
+    <t>jisiɛtɕiɛɲitɤukʰyle</t>
+  </si>
+  <si>
+    <t>fukytsʰɹ̩jivazɹ̩tsʰɹ̩tɕɤuojyɔfudʑake</t>
+  </si>
+  <si>
+    <t>jiɦahɜdzoɦahɜŋ̩ofusɹ̩ɕy</t>
+  </si>
+  <si>
+    <t>fukyɲitsaufutsauhaŋ̩tɜdʑa=dʑa=tsauke</t>
+  </si>
+  <si>
+    <t>ŋ̩futsaufuɕaŋa</t>
+  </si>
+  <si>
+    <t>ɲizɹ̩ɲaujiɲileika</t>
+  </si>
+  <si>
+    <t>ŋ̩zɹ̩jiɲitɜpaitɕaŋke</t>
+  </si>
+  <si>
+    <t>kenekʰevaiaɲinaŋtuɔtsɹ̩zeia</t>
+  </si>
+  <si>
+    <t>ɲidʑatsʰeŋŋ̩kʰa</t>
+  </si>
+  <si>
+    <t>pitsaupikuɔ</t>
+  </si>
+  <si>
+    <t>jytsaujyjyjykuɔjytɤu</t>
+  </si>
+  <si>
+    <t>dehekaimøzɹ̩tohaŋ̩</t>
+  </si>
+  <si>
+    <t>jauledeihuɔdetʰajitɕiɛɲidɤu</t>
+  </si>
+  <si>
+    <t>ɲitɕyseŋaŋ̩seŋjyɔ</t>
+  </si>
+  <si>
+    <t>ɲiseŋjyɔŋ̩ɦaseŋjyɔŋuɔɲiliɛkaioseŋjyɔ</t>
+  </si>
+  <si>
+    <t>ɲitsaueiɕiŋ̩letaŋoŋ̩tsetsau</t>
+  </si>
+  <si>
+    <t>ɕijiɲitsʰɹ̩afu</t>
+  </si>
+  <si>
+    <t>hekainaŋɲiseiafu</t>
   </si>
 </sst>
 </file>
@@ -3011,13 +3176,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3069,2875 +3234,3040 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="P2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Q2" t="s">
-        <v>826</v>
+        <v>827</v>
+      </c>
+      <c r="R2" t="s">
+        <v>881</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="O3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="Q3" t="s">
-        <v>827</v>
+        <v>828</v>
+      </c>
+      <c r="R3" t="s">
+        <v>882</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="Q4" t="s">
-        <v>828</v>
+        <v>829</v>
+      </c>
+      <c r="R4" t="s">
+        <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="Q5" t="s">
-        <v>829</v>
+        <v>830</v>
+      </c>
+      <c r="R5" t="s">
+        <v>884</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="P6" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Q6" t="s">
-        <v>830</v>
+        <v>831</v>
+      </c>
+      <c r="R6" t="s">
+        <v>885</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="P7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Q7" t="s">
-        <v>831</v>
+        <v>832</v>
+      </c>
+      <c r="R7" t="s">
+        <v>886</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="P8" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Q8" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="R8" t="s">
+        <v>887</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Q9" t="s">
-        <v>833</v>
+        <v>834</v>
+      </c>
+      <c r="R9" t="s">
+        <v>888</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="Q10" t="s">
-        <v>834</v>
+        <v>835</v>
+      </c>
+      <c r="R10" t="s">
+        <v>889</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L11" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M11" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N11" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O11" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="P11" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Q11" t="s">
-        <v>835</v>
+        <v>836</v>
+      </c>
+      <c r="R11" t="s">
+        <v>890</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N12" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O12" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="P12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Q12" t="s">
-        <v>836</v>
+        <v>837</v>
+      </c>
+      <c r="R12" t="s">
+        <v>891</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N13" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O13" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P13" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Q13" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="R13" t="s">
+        <v>892</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K15" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L15" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M15" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N15" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O15" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P15" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Q15" t="s">
-        <v>838</v>
+        <v>839</v>
+      </c>
+      <c r="R15" t="s">
+        <v>893</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L16" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M16" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N16" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O16" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P16" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Q16" t="s">
-        <v>839</v>
+        <v>840</v>
+      </c>
+      <c r="R16" t="s">
+        <v>894</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L17" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M17" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N17" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O17" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P17" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="Q17" t="s">
-        <v>840</v>
+        <v>841</v>
+      </c>
+      <c r="R17" t="s">
+        <v>895</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K18" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M18" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N18" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O18" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="P18" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="Q18" t="s">
-        <v>841</v>
+        <v>842</v>
+      </c>
+      <c r="R18" t="s">
+        <v>896</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K19" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M19" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N19" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O19" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P19" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="Q19" t="s">
-        <v>842</v>
+        <v>843</v>
+      </c>
+      <c r="R19" t="s">
+        <v>897</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K20" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M20" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N20" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O20" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="P20" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="Q20" t="s">
-        <v>843</v>
+        <v>844</v>
+      </c>
+      <c r="R20" t="s">
+        <v>898</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K21" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L21" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M21" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N21" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O21" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="Q21" t="s">
-        <v>844</v>
+        <v>845</v>
+      </c>
+      <c r="R21" t="s">
+        <v>899</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K22" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L22" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M22" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N22" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O22" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P22" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="Q22" t="s">
-        <v>845</v>
+        <v>846</v>
+      </c>
+      <c r="R22" t="s">
+        <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K23" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L23" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M23" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N23" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Q23" t="s">
-        <v>846</v>
+        <v>847</v>
+      </c>
+      <c r="R23" t="s">
+        <v>901</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I24" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L24" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M24" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N24" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="Q24" t="s">
-        <v>847</v>
+        <v>848</v>
+      </c>
+      <c r="R24" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I25" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K25" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L25" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M25" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N25" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="P25" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="Q25" t="s">
-        <v>848</v>
+        <v>849</v>
+      </c>
+      <c r="R25" t="s">
+        <v>903</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I26" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J26" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K26" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L26" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M26" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N26" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O26" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P26" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q26" t="s">
-        <v>849</v>
+        <v>850</v>
+      </c>
+      <c r="R26" t="s">
+        <v>904</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K27" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L27" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M27" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N27" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O27" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="P27" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Q27" t="s">
-        <v>850</v>
+        <v>851</v>
+      </c>
+      <c r="R27" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J28" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K28" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L28" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M28" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N28" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O28" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P28" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="Q28" t="s">
-        <v>851</v>
+        <v>852</v>
+      </c>
+      <c r="R28" t="s">
+        <v>906</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I29" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J29" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K29" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L29" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M29" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N29" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O29" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="P29" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="Q29" t="s">
-        <v>852</v>
+        <v>853</v>
+      </c>
+      <c r="R29" t="s">
+        <v>907</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H30" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K30" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L30" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M30" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N30" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O30" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P30" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="Q30" t="s">
-        <v>853</v>
+        <v>854</v>
+      </c>
+      <c r="R30" t="s">
+        <v>908</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J31" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K31" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L31" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M31" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N31" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O31" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="P31" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Q31" t="s">
-        <v>854</v>
+        <v>855</v>
+      </c>
+      <c r="R31" t="s">
+        <v>909</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H32" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I32" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K32" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L32" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M32" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N32" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O32" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="P32" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="Q32" t="s">
-        <v>855</v>
+        <v>856</v>
+      </c>
+      <c r="R32" t="s">
+        <v>910</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H33" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J33" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K33" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L33" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M33" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N33" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O33" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P33" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="Q33" t="s">
-        <v>856</v>
+        <v>857</v>
+      </c>
+      <c r="R33" t="s">
+        <v>911</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H34" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I34" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J34" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K34" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L34" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M34" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N34" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O34" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="P34" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q34" t="s">
-        <v>857</v>
+        <v>858</v>
+      </c>
+      <c r="R34" t="s">
+        <v>912</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I35" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J35" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K35" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L35" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M35" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N35" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="O35" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P35" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Q35" t="s">
-        <v>858</v>
+        <v>859</v>
+      </c>
+      <c r="R35" t="s">
+        <v>913</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H36" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J36" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K36" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L36" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M36" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N36" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O36" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P36" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Q36" t="s">
-        <v>859</v>
+        <v>860</v>
+      </c>
+      <c r="R36" t="s">
+        <v>914</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H37" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I37" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K37" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L37" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M37" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N37" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O37" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P37" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Q37" t="s">
-        <v>860</v>
+        <v>861</v>
+      </c>
+      <c r="R37" t="s">
+        <v>915</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H38" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I38" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J38" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K38" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L38" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M38" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N38" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O38" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="P38" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Q38" t="s">
-        <v>861</v>
+        <v>862</v>
+      </c>
+      <c r="R38" t="s">
+        <v>916</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H39" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I39" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J39" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K39" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L39" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M39" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N39" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O39" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P39" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Q39" t="s">
-        <v>862</v>
+        <v>863</v>
+      </c>
+      <c r="R39" t="s">
+        <v>917</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H40" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I40" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J40" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K40" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L40" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M40" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N40" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O40" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P40" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Q40" t="s">
-        <v>863</v>
+        <v>864</v>
+      </c>
+      <c r="R40" t="s">
+        <v>918</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H41" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I41" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K41" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L41" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M41" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N41" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O41" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="P41" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Q41" t="s">
-        <v>864</v>
+        <v>865</v>
+      </c>
+      <c r="R41" t="s">
+        <v>919</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I42" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J42" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K42" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L42" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M42" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N42" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O42" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="P42" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Q42" t="s">
-        <v>865</v>
+        <v>866</v>
+      </c>
+      <c r="R42" t="s">
+        <v>920</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I43" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J43" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K43" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L43" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M43" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N43" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O43" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P43" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="Q43" t="s">
-        <v>866</v>
+        <v>867</v>
+      </c>
+      <c r="R43" t="s">
+        <v>921</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H44" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I44" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J44" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K44" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L44" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M44" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N44" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O44" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P44" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="Q44" t="s">
-        <v>867</v>
+        <v>868</v>
+      </c>
+      <c r="R44" t="s">
+        <v>922</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H45" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I45" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J45" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K45" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L45" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M45" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O45" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P45" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="Q45" t="s">
-        <v>868</v>
+        <v>869</v>
+      </c>
+      <c r="R45" t="s">
+        <v>923</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H46" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I46" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J46" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K46" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L46" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M46" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N46" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O46" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P46" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="Q46" t="s">
-        <v>869</v>
+        <v>870</v>
+      </c>
+      <c r="R46" t="s">
+        <v>924</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H47" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I47" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J47" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K47" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L47" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M47" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N47" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O47" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="P47" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Q47" t="s">
-        <v>870</v>
+        <v>871</v>
+      </c>
+      <c r="R47" t="s">
+        <v>925</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H48" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I48" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J48" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K48" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L48" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M48" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N48" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O48" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="P48" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Q48" t="s">
-        <v>871</v>
+        <v>872</v>
+      </c>
+      <c r="R48" t="s">
+        <v>926</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H49" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I49" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J49" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K49" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L49" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M49" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N49" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="O49" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="P49" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Q49" t="s">
-        <v>872</v>
+        <v>873</v>
+      </c>
+      <c r="R49" t="s">
+        <v>927</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H50" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I50" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J50" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K50" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L50" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M50" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N50" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O50" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="P50" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="Q50" t="s">
-        <v>873</v>
+        <v>874</v>
+      </c>
+      <c r="R50" t="s">
+        <v>928</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E51" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H51" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I51" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J51" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K51" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L51" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M51" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N51" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O51" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="P51" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q51" t="s">
-        <v>874</v>
+        <v>875</v>
+      </c>
+      <c r="R51" t="s">
+        <v>929</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I52" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J52" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K52" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L52" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N52" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O52" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="P52" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Q52" t="s">
-        <v>875</v>
+        <v>876</v>
+      </c>
+      <c r="R52" t="s">
+        <v>930</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G53" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I53" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J53" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K53" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L53" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M53" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N53" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O53" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="P53" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Q53" t="s">
-        <v>876</v>
+        <v>877</v>
+      </c>
+      <c r="R53" t="s">
+        <v>931</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H54" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I54" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J54" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K54" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L54" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M54" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N54" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O54" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="P54" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Q54" t="s">
-        <v>877</v>
+        <v>878</v>
+      </c>
+      <c r="R54" t="s">
+        <v>932</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H55" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I55" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J55" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K55" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L55" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M55" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N55" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O55" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P55" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="Q55" t="s">
-        <v>878</v>
+        <v>879</v>
+      </c>
+      <c r="R55" t="s">
+        <v>933</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H56" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I56" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J56" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K56" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L56" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M56" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N56" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O56" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="P56" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Q56" t="s">
-        <v>879</v>
+        <v>880</v>
+      </c>
+      <c r="R56" t="s">
+        <v>934</v>
       </c>
     </row>
   </sheetData>
